--- a/doc/excel/统战/[sample_dpNpm]无党派人士信息录入样表.xlsx
+++ b/doc/excel/统战/[sample_dpNpm]无党派人士信息录入样表.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D62BBA7B-2FE3-45C8-BC65-1628B7AFDB04}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C261EEB-F56D-475A-A2D2-73D76EE29BC8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10155" yWindow="1035" windowWidth="18315" windowHeight="10635" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="26685" windowHeight="12570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -38,14 +38,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>最高学历</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最高学位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>备注</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -54,19 +46,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>硕士</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>研究生</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>数学院院长</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>部门</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -85,7 +65,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -120,21 +100,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -176,7 +141,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -194,16 +159,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -521,11 +476,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H40"/>
+  <dimension ref="A1:E40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C6" sqref="C6:G17"/>
+      <selection pane="topRight" activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -533,15 +488,12 @@
     <col min="1" max="1" width="14.375" style="1"/>
     <col min="2" max="2" width="11.75" customWidth="1"/>
     <col min="3" max="4" width="15.375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="18.25" style="8" customWidth="1"/>
-    <col min="6" max="6" width="15.375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.375" style="1"/>
-    <col min="8" max="8" width="27.375" customWidth="1"/>
+    <col min="5" max="5" width="27.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="3" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" s="3" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -552,20 +504,11 @@
       <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" s="2" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:5" s="2" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>11112019060</v>
       </c>
@@ -573,308 +516,193 @@
         <v>1</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="7"/>
-      <c r="F2" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H2" s="5"/>
-    </row>
-    <row r="3" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+      <c r="E2" s="5"/>
+    </row>
+    <row r="3" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3"/>
       <c r="C3"/>
       <c r="D3"/>
-      <c r="F3"/>
-      <c r="G3"/>
-    </row>
-    <row r="4" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4"/>
       <c r="C4"/>
       <c r="D4"/>
-      <c r="F4"/>
-      <c r="G4"/>
-    </row>
-    <row r="5" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5"/>
       <c r="C5"/>
       <c r="D5"/>
-      <c r="F5"/>
-      <c r="G5"/>
-    </row>
-    <row r="6" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6"/>
-      <c r="C6" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-    </row>
-    <row r="7" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+    </row>
+    <row r="7" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-    </row>
-    <row r="8" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+    </row>
+    <row r="8" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-    </row>
-    <row r="9" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+    </row>
+    <row r="9" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-    </row>
-    <row r="10" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+    </row>
+    <row r="10" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-    </row>
-    <row r="11" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+    </row>
+    <row r="11" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-    </row>
-    <row r="12" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+    </row>
+    <row r="12" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-    </row>
-    <row r="13" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+    </row>
+    <row r="13" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-    </row>
-    <row r="14" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+    </row>
+    <row r="14" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-    </row>
-    <row r="15" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+    </row>
+    <row r="15" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-    </row>
-    <row r="16" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+    </row>
+    <row r="16" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-    </row>
-    <row r="17" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+    </row>
+    <row r="17" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-    </row>
-    <row r="18" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+    </row>
+    <row r="18" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18"/>
       <c r="C18"/>
       <c r="D18"/>
-      <c r="F18"/>
-      <c r="G18"/>
-    </row>
-    <row r="19" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19"/>
       <c r="C19"/>
       <c r="D19"/>
-      <c r="F19"/>
-      <c r="G19"/>
-    </row>
-    <row r="20" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20"/>
       <c r="C20"/>
       <c r="D20"/>
-      <c r="F20"/>
-      <c r="G20"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21"/>
       <c r="C21"/>
       <c r="D21"/>
-      <c r="F21"/>
-      <c r="G21"/>
-    </row>
-    <row r="22" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22"/>
       <c r="C22"/>
       <c r="D22"/>
-      <c r="F22"/>
-      <c r="G22"/>
-    </row>
-    <row r="23" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23"/>
       <c r="C23"/>
       <c r="D23"/>
-      <c r="F23"/>
-      <c r="G23"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24"/>
       <c r="C24"/>
       <c r="D24"/>
-      <c r="F24"/>
-      <c r="G24"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25"/>
       <c r="C25"/>
       <c r="D25"/>
-      <c r="F25"/>
-      <c r="G25"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26"/>
       <c r="C26"/>
       <c r="D26"/>
-      <c r="F26"/>
-      <c r="G26"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27"/>
       <c r="C27"/>
       <c r="D27"/>
-      <c r="F27"/>
-      <c r="G27"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28"/>
       <c r="C28"/>
       <c r="D28"/>
-      <c r="F28"/>
-      <c r="G28"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29"/>
       <c r="C29"/>
       <c r="D29"/>
-      <c r="F29"/>
-      <c r="G29"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30"/>
       <c r="C30"/>
       <c r="D30"/>
-      <c r="F30"/>
-      <c r="G30"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31"/>
       <c r="C31"/>
       <c r="D31"/>
-      <c r="F31"/>
-      <c r="G31"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32"/>
       <c r="C32"/>
       <c r="D32"/>
-      <c r="F32"/>
-      <c r="G32"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A33"/>
-      <c r="C33"/>
-      <c r="D33"/>
-      <c r="F33"/>
-      <c r="G33"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A34"/>
-      <c r="C34"/>
-      <c r="D34"/>
-      <c r="F34"/>
-      <c r="G34"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A35"/>
-      <c r="C35"/>
-      <c r="D35"/>
-      <c r="F35"/>
-      <c r="G35"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A36"/>
-      <c r="C36"/>
-      <c r="D36"/>
-      <c r="F36"/>
-      <c r="G36"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A37"/>
-      <c r="C37"/>
-      <c r="D37"/>
-      <c r="F37"/>
-      <c r="G37"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A38"/>
-      <c r="C38"/>
-      <c r="D38"/>
-      <c r="F38"/>
-      <c r="G38"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A39"/>
-      <c r="C39"/>
-      <c r="D39"/>
-      <c r="F39"/>
-      <c r="G39"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A40"/>
-      <c r="C40"/>
-      <c r="D40"/>
-      <c r="F40"/>
-      <c r="G40"/>
-    </row>
+    </row>
+    <row r="33" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="34" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="35" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="36" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="38" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="39" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="40" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="1">
-    <mergeCell ref="C6:G17"/>
+    <mergeCell ref="C6:E17"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="RP22:RP23 ABL22:ABL23 ALH22:ALH23 AVD22:AVD23 BEZ22:BEZ23 BOV22:BOV23 BYR22:BYR23 CIN22:CIN23 CSJ22:CSJ23 DCF22:DCF23 DMB22:DMB23 DVX22:DVX23 EFT22:EFT23 EPP22:EPP23 EZL22:EZL23 FJH22:FJH23 FTD22:FTD23 GCZ22:GCZ23 GMV22:GMV23 GWR22:GWR23 HGN22:HGN23 HQJ22:HQJ23 IAF22:IAF23 IKB22:IKB23 ITX22:ITX23 JDT22:JDT23 JNP22:JNP23 JXL22:JXL23 KHH22:KHH23 KRD22:KRD23 LAZ22:LAZ23 LKV22:LKV23 LUR22:LUR23 MEN22:MEN23 MOJ22:MOJ23 MYF22:MYF23 NIB22:NIB23 NRX22:NRX23 OBT22:OBT23 OLP22:OLP23 OVL22:OVL23 PFH22:PFH23 PPD22:PPD23 PYZ22:PYZ23 QIV22:QIV23 QSR22:QSR23 RCN22:RCN23 RMJ22:RMJ23 RWF22:RWF23 SGB22:SGB23 SPX22:SPX23 SZT22:SZT23 TJP22:TJP23 TTL22:TTL23 UDH22:UDH23 UND22:UND23 UWZ22:UWZ23 VGV22:VGV23 VQR22:VQR23 WAN22:WAN23 WKJ22:WKJ23 WUF22:WUF23 HT22:HT23 WJZ7:WJZ20 WAD7:WAD20 VQH7:VQH20 VGL7:VGL20 UWP7:UWP20 UMT7:UMT20 UCX7:UCX20 TTB7:TTB20 TJF7:TJF20 SZJ7:SZJ20 SPN7:SPN20 SFR7:SFR20 RVV7:RVV20 RLZ7:RLZ20 RCD7:RCD20 QSH7:QSH20 QIL7:QIL20 PYP7:PYP20 POT7:POT20 PEX7:PEX20 OVB7:OVB20 OLF7:OLF20 OBJ7:OBJ20 NRN7:NRN20 NHR7:NHR20 MXV7:MXV20 MNZ7:MNZ20 MED7:MED20 LUH7:LUH20 LKL7:LKL20 LAP7:LAP20 KQT7:KQT20 KGX7:KGX20 JXB7:JXB20 JNF7:JNF20 JDJ7:JDJ20 ITN7:ITN20 IJR7:IJR20 HZV7:HZV20 HPZ7:HPZ20 HGD7:HGD20 GWH7:GWH20 GML7:GML20 GCP7:GCP20 FST7:FST20 FIX7:FIX20 EZB7:EZB20 EPF7:EPF20 EFJ7:EFJ20 DVN7:DVN20 DLR7:DLR20 DBV7:DBV20 CRZ7:CRZ20 CID7:CID20 BYH7:BYH20 BOL7:BOL20 BEP7:BEP20 AUT7:AUT20 AKX7:AKX20 ABB7:ABB20 RF7:RF20 HJ7:HJ20 WTV7:WTV20 WUA6 HO6 RK6 ABG6 ALC6 AUY6 BEU6 BOQ6 BYM6 CII6 CSE6 DCA6 DLW6 DVS6 EFO6 EPK6 EZG6 FJC6 FSY6 GCU6 GMQ6 GWM6 HGI6 HQE6 IAA6 IJW6 ITS6 JDO6 JNK6 JXG6 KHC6 KQY6 LAU6 LKQ6 LUM6 MEI6 MOE6 MYA6 NHW6 NRS6 OBO6 OLK6 OVG6 PFC6 POY6 PYU6 QIQ6 QSM6 RCI6 RME6 RWA6 SFW6 SPS6 SZO6 TJK6 TTG6 UDC6 UMY6 UWU6 VGQ6 VQM6 WAI6 WKE6 WKI2 WKJ3:WKJ5 WAM2 WAN3:WAN5 VQQ2 VQR3:VQR5 VGU2 VGV3:VGV5 UWY2 UWZ3:UWZ5 UNC2 UND3:UND5 UDG2 UDH3:UDH5 TTK2 TTL3:TTL5 TJO2 TJP3:TJP5 SZS2 SZT3:SZT5 SPW2 SPX3:SPX5 SGA2 SGB3:SGB5 RWE2 RWF3:RWF5 RMI2 RMJ3:RMJ5 RCM2 RCN3:RCN5 QSQ2 QSR3:QSR5 QIU2 QIV3:QIV5 PYY2 PYZ3:PYZ5 PPC2 PPD3:PPD5 PFG2 PFH3:PFH5 OVK2 OVL3:OVL5 OLO2 OLP3:OLP5 OBS2 OBT3:OBT5 NRW2 NRX3:NRX5 NIA2 NIB3:NIB5 MYE2 MYF3:MYF5 MOI2 MOJ3:MOJ5 MEM2 MEN3:MEN5 LUQ2 LUR3:LUR5 LKU2 LKV3:LKV5 LAY2 LAZ3:LAZ5 KRC2 KRD3:KRD5 KHG2 KHH3:KHH5 JXK2 JXL3:JXL5 JNO2 JNP3:JNP5 JDS2 JDT3:JDT5 ITW2 ITX3:ITX5 IKA2 IKB3:IKB5 IAE2 IAF3:IAF5 HQI2 HQJ3:HQJ5 HGM2 HGN3:HGN5 GWQ2 GWR3:GWR5 GMU2 GMV3:GMV5 GCY2 GCZ3:GCZ5 FTC2 FTD3:FTD5 FJG2 FJH3:FJH5 EZK2 EZL3:EZL5 EPO2 EPP3:EPP5 EFS2 EFT3:EFT5 DVW2 DVX3:DVX5 DMA2 DMB3:DMB5 DCE2 DCF3:DCF5 CSI2 CSJ3:CSJ5 CIM2 CIN3:CIN5 BYQ2 BYR3:BYR5 BOU2 BOV3:BOV5 BEY2 BEZ3:BEZ5 AVC2 AVD3:AVD5 ALG2 ALH3:ALH5 ABK2 ABL3:ABL5 RO2 RP3:RP5 HS2 HT3:HT5 WUE2 WUF3:WUF5" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="RM22:RM23 ABI22:ABI23 ALE22:ALE23 AVA22:AVA23 BEW22:BEW23 BOS22:BOS23 BYO22:BYO23 CIK22:CIK23 CSG22:CSG23 DCC22:DCC23 DLY22:DLY23 DVU22:DVU23 EFQ22:EFQ23 EPM22:EPM23 EZI22:EZI23 FJE22:FJE23 FTA22:FTA23 GCW22:GCW23 GMS22:GMS23 GWO22:GWO23 HGK22:HGK23 HQG22:HQG23 IAC22:IAC23 IJY22:IJY23 ITU22:ITU23 JDQ22:JDQ23 JNM22:JNM23 JXI22:JXI23 KHE22:KHE23 KRA22:KRA23 LAW22:LAW23 LKS22:LKS23 LUO22:LUO23 MEK22:MEK23 MOG22:MOG23 MYC22:MYC23 NHY22:NHY23 NRU22:NRU23 OBQ22:OBQ23 OLM22:OLM23 OVI22:OVI23 PFE22:PFE23 PPA22:PPA23 PYW22:PYW23 QIS22:QIS23 QSO22:QSO23 RCK22:RCK23 RMG22:RMG23 RWC22:RWC23 SFY22:SFY23 SPU22:SPU23 SZQ22:SZQ23 TJM22:TJM23 TTI22:TTI23 UDE22:UDE23 UNA22:UNA23 UWW22:UWW23 VGS22:VGS23 VQO22:VQO23 WAK22:WAK23 WKG22:WKG23 WUC22:WUC23 HQ22:HQ23 WJW7:WJW20 WAA7:WAA20 VQE7:VQE20 VGI7:VGI20 UWM7:UWM20 UMQ7:UMQ20 UCU7:UCU20 TSY7:TSY20 TJC7:TJC20 SZG7:SZG20 SPK7:SPK20 SFO7:SFO20 RVS7:RVS20 RLW7:RLW20 RCA7:RCA20 QSE7:QSE20 QII7:QII20 PYM7:PYM20 POQ7:POQ20 PEU7:PEU20 OUY7:OUY20 OLC7:OLC20 OBG7:OBG20 NRK7:NRK20 NHO7:NHO20 MXS7:MXS20 MNW7:MNW20 MEA7:MEA20 LUE7:LUE20 LKI7:LKI20 LAM7:LAM20 KQQ7:KQQ20 KGU7:KGU20 JWY7:JWY20 JNC7:JNC20 JDG7:JDG20 ITK7:ITK20 IJO7:IJO20 HZS7:HZS20 HPW7:HPW20 HGA7:HGA20 GWE7:GWE20 GMI7:GMI20 GCM7:GCM20 FSQ7:FSQ20 FIU7:FIU20 EYY7:EYY20 EPC7:EPC20 EFG7:EFG20 DVK7:DVK20 DLO7:DLO20 DBS7:DBS20 CRW7:CRW20 CIA7:CIA20 BYE7:BYE20 BOI7:BOI20 BEM7:BEM20 AUQ7:AUQ20 AKU7:AKU20 AAY7:AAY20 RC7:RC20 HG7:HG20 WTS7:WTS20 WTX6 HL6 RH6 ABD6 AKZ6 AUV6 BER6 BON6 BYJ6 CIF6 CSB6 DBX6 DLT6 DVP6 EFL6 EPH6 EZD6 FIZ6 FSV6 GCR6 GMN6 GWJ6 HGF6 HQB6 HZX6 IJT6 ITP6 JDL6 JNH6 JXD6 KGZ6 KQV6 LAR6 LKN6 LUJ6 MEF6 MOB6 MXX6 NHT6 NRP6 OBL6 OLH6 OVD6 PEZ6 POV6 PYR6 QIN6 QSJ6 RCF6 RMB6 RVX6 SFT6 SPP6 SZL6 TJH6 TTD6 UCZ6 UMV6 UWR6 VGN6 VQJ6 WAF6 WKB6 WKF2 WKG3:WKG5 WAJ2 WAK3:WAK5 VQN2 VQO3:VQO5 VGR2 VGS3:VGS5 UWV2 UWW3:UWW5 UMZ2 UNA3:UNA5 UDD2 UDE3:UDE5 TTH2 TTI3:TTI5 TJL2 TJM3:TJM5 SZP2 SZQ3:SZQ5 SPT2 SPU3:SPU5 SFX2 SFY3:SFY5 RWB2 RWC3:RWC5 RMF2 RMG3:RMG5 RCJ2 RCK3:RCK5 QSN2 QSO3:QSO5 QIR2 QIS3:QIS5 PYV2 PYW3:PYW5 POZ2 PPA3:PPA5 PFD2 PFE3:PFE5 OVH2 OVI3:OVI5 OLL2 OLM3:OLM5 OBP2 OBQ3:OBQ5 NRT2 NRU3:NRU5 NHX2 NHY3:NHY5 MYB2 MYC3:MYC5 MOF2 MOG3:MOG5 MEJ2 MEK3:MEK5 LUN2 LUO3:LUO5 LKR2 LKS3:LKS5 LAV2 LAW3:LAW5 KQZ2 KRA3:KRA5 KHD2 KHE3:KHE5 JXH2 JXI3:JXI5 JNL2 JNM3:JNM5 JDP2 JDQ3:JDQ5 ITT2 ITU3:ITU5 IJX2 IJY3:IJY5 IAB2 IAC3:IAC5 HQF2 HQG3:HQG5 HGJ2 HGK3:HGK5 GWN2 GWO3:GWO5 GMR2 GMS3:GMS5 GCV2 GCW3:GCW5 FSZ2 FTA3:FTA5 FJD2 FJE3:FJE5 EZH2 EZI3:EZI5 EPL2 EPM3:EPM5 EFP2 EFQ3:EFQ5 DVT2 DVU3:DVU5 DLX2 DLY3:DLY5 DCB2 DCC3:DCC5 CSF2 CSG3:CSG5 CIJ2 CIK3:CIK5 BYN2 BYO3:BYO5 BOR2 BOS3:BOS5 BEV2 BEW3:BEW5 AUZ2 AVA3:AVA5 ALD2 ALE3:ALE5 ABH2 ABI3:ABI5 RL2 RM3:RM5 HP2 HQ3:HQ5 WUB2 WUC3:WUC5" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"申请入党人员,入党积极分子,发展对象"</formula1>
     </dataValidation>
   </dataValidations>
